--- a/src/main/resources/12306_2.xlsx
+++ b/src/main/resources/12306_2.xlsx
@@ -1172,7 +1172,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
